--- a/data/testParser.xlsx
+++ b/data/testParser.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dennis/wstorm/prepairProducts/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dennis/wstorm/xlsx-to-csv-with-filter/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCC301AA-C31F-594D-98DC-9821CBDEC4AF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{802C7B85-A8BB-DC41-AEA2-EEC52A6109F7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11440" yWindow="960" windowWidth="16980" windowHeight="15600" xr2:uid="{96BB3A95-B8DE-0E41-AC5C-7D35DE604C35}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
   <si>
     <t>a</t>
   </si>
@@ -53,9 +53,6 @@
     <t>c1</t>
   </si>
   <si>
-    <t>d1</t>
-  </si>
-  <si>
     <t>e1</t>
   </si>
   <si>
@@ -71,9 +68,6 @@
     <t>f2</t>
   </si>
   <si>
-    <t>a3</t>
-  </si>
-  <si>
     <t>b3</t>
   </si>
   <si>
@@ -111,6 +105,72 @@
   </si>
   <si>
     <t>f1 - - -</t>
+  </si>
+  <si>
+    <t>g1</t>
+  </si>
+  <si>
+    <t>h1</t>
+  </si>
+  <si>
+    <t>i1</t>
+  </si>
+  <si>
+    <t>j1</t>
+  </si>
+  <si>
+    <t>g2</t>
+  </si>
+  <si>
+    <t>h2</t>
+  </si>
+  <si>
+    <t>i2</t>
+  </si>
+  <si>
+    <t>j2</t>
+  </si>
+  <si>
+    <t>k2</t>
+  </si>
+  <si>
+    <t>g3</t>
+  </si>
+  <si>
+    <t>h3</t>
+  </si>
+  <si>
+    <t>i3</t>
+  </si>
+  <si>
+    <t>j3</t>
+  </si>
+  <si>
+    <t>g4</t>
+  </si>
+  <si>
+    <t>h4</t>
+  </si>
+  <si>
+    <t>i4</t>
+  </si>
+  <si>
+    <t>j4</t>
+  </si>
+  <si>
+    <t>k4</t>
+  </si>
+  <si>
+    <t>k1 | k11</t>
+  </si>
+  <si>
+    <t>d1 | d11</t>
+  </si>
+  <si>
+    <t>k3 |k4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -463,15 +523,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2ADDDB4-C8FA-1F40-B66A-8FFEBA18DFDE}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -491,84 +551,149 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
       <c r="D2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="F2" t="s">
-        <v>26</v>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>19</v>
       </c>
-      <c r="E3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="B4" t="s">
         <v>12</v>
       </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
         <v>13</v>
       </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s">
         <v>18</v>
       </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5" t="s">
+        <v>41</v>
+      </c>
+      <c r="K5" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" t="s">
-        <v>23</v>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I11" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
